--- a/data/trans_camb/P27-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P27-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,12</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>-18,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,01</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,75</t>
+          <t>-5,51</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-17,75</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,27</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-4,31</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-18,21</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 12,45</t>
+          <t>-7,26; 15,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 16,0</t>
+          <t>-4,64; 18,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 28,4</t>
+          <t>-10,9; 13,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 21,77</t>
+          <t>-14,34; 11,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 18,38</t>
+          <t>-32,02; -3,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 31,66</t>
+          <t>-3,0; 19,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 14,77</t>
+          <t>-4,34; 17,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 14,14</t>
+          <t>-6,12; 17,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,91; 25,79</t>
+          <t>-17,11; 6,62</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-30,27; -4,37</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 14,63</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 15,41</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 12,45</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-13,96; 4,58</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-27,98; -7,94</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>49,91%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>-5,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>-36,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,17%</t>
+          <t>-10,61%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-27,66%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17,63%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-9,99%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-31,93%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 43,39</t>
+          <t>-19,07; 58,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 55,45</t>
+          <t>-12,53; 66,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 96,78</t>
+          <t>-28,98; 51,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 55,88</t>
+          <t>-37,65; 41,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 48,29</t>
+          <t>-55,62; -8,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,97; 80,01</t>
+          <t>-4,7; 49,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 40,79</t>
+          <t>-8,61; 45,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 40,9</t>
+          <t>-12,36; 44,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,7; 73,69</t>
+          <t>-30,65; 14,23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-43,16; -7,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 41,83</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 44,64</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-11,19; 36,11</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-28,82; 12,82</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-45,81; -16,22</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>11,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,99</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>14,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-5,59</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,75</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,87</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,51</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-3,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 12,22</t>
+          <t>-10,87; 12,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 13,71</t>
+          <t>-9,45; 15,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 21,92</t>
+          <t>-2,41; 27,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 15,79</t>
+          <t>-21,31; 10,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 24,68</t>
+          <t>-16,34; 13,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 20,63</t>
+          <t>-5,58; 13,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 10,02</t>
+          <t>4,61; 25,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 15,75</t>
+          <t>-6,32; 15,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 17,6</t>
+          <t>-11,31; 10,52</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-16,13; 5,98</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 10,52</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 15,61</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 17,88</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-13,25; 6,45</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-13,09; 5,36</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>-8,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>-0,78%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-10,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18,65%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-5,07%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-7,35%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 37,54</t>
+          <t>-25,1; 38,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 40,57</t>
+          <t>-21,63; 48,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 67,69</t>
+          <t>-5,96; 82,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 41,15</t>
+          <t>-37,61; 25,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,09; 65,91</t>
+          <t>-29,55; 33,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 54,2</t>
+          <t>-10,89; 36,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 27,78</t>
+          <t>8,88; 65,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,04</t>
+          <t>-12,76; 39,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 47,5</t>
+          <t>-21,37; 24,16</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-26,94; 12,17</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-12,89; 28,69</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 42,72</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 47,15</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-23,34; 15,54</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-23,8; 12,05</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,8</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>-8,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>-11,55</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-7,24</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,54</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-9,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 2,15</t>
+          <t>-16,7; 3,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 10,96</t>
+          <t>-8,66; 11,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 15,97</t>
+          <t>-20,1; 0,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 9,68</t>
+          <t>-7,35; 13,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 14,95</t>
+          <t>-21,46; -1,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 18,1</t>
+          <t>-4,83; 10,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 3,64</t>
+          <t>-1,01; 14,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 9,79</t>
+          <t>-7,02; 9,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 13,45</t>
+          <t>-6,94; 9,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-16,29; 2,22</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 4,83</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 10,39</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-10,3; 2,81</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 9,07</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-16,15; -2,39</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,14%</t>
+          <t>-13,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>-17,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>-20,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,03%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-11,48%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-3,33%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-6,85%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-15,97%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 4,73</t>
+          <t>-30,06; 6,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 24,37</t>
+          <t>-15,75; 25,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 37,17</t>
+          <t>-36,21; 1,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 19,6</t>
+          <t>-16,13; 36,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 31,3</t>
+          <t>-35,44; -3,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 36,76</t>
+          <t>-8,19; 22,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 7,87</t>
+          <t>-1,87; 30,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 20,19</t>
+          <t>-12,45; 19,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 27,59</t>
+          <t>-12,13; 19,71</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-24,15; 4,05</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-15,58; 9,98</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 21,29</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; 6,01</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 20,34</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-25,84; -4,39</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,33</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,78</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-9,28</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-8,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 11,15</t>
+          <t>-7,4; 10,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 19,28</t>
+          <t>1,37; 18,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 21,22</t>
+          <t>-3,73; 14,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 5,71</t>
+          <t>-11,96; 6,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 7,24</t>
+          <t>-18,66; 1,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 13,29</t>
+          <t>-9,45; 5,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 5,45</t>
+          <t>-7,96; 6,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 9,95</t>
+          <t>-13,51; 2,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 14,77</t>
+          <t>-7,94; 8,64</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-19,47; -1,22</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 4,82</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 10,44</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 6,15</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; 5,41</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-15,96; -1,79</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,38%</t>
+          <t>-5,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>-14,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>-2,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>-9,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-13,83%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,79%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-0,79%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-14,15%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 29,25</t>
+          <t>-15,2; 26,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,15; 50,8</t>
+          <t>2,96; 49,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,24; 54,5</t>
+          <t>-8,02; 36,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 9,58</t>
+          <t>-22,75; 15,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 12,36</t>
+          <t>-30,46; 3,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 23,49</t>
+          <t>-14,15; 10,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 10,76</t>
+          <t>-12,02; 10,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 20,18</t>
+          <t>-20,45; 4,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,17; 29,41</t>
+          <t>-13,34; 16,23</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-27,36; -1,99</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; 9,75</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 20,98</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; 12,45</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-13,35; 10,76</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-24,58; -2,71</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,0</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>-12,08</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,66</t>
+          <t>3,81</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-19,21</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5,72</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-7,58</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>5,32</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-13,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 11,94</t>
+          <t>-8,42; 11,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 16,43</t>
+          <t>-1,53; 16,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,27; 22,08</t>
+          <t>-12,74; 6,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 12,89</t>
+          <t>-3,48; 17,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 12,61</t>
+          <t>-18,97; 2,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,28; 19,23</t>
+          <t>-6,1; 11,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 9,33</t>
+          <t>-5,63; 12,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 12,09</t>
+          <t>-21,97; -2,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,77; 18,46</t>
+          <t>-6,18; 13,83</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-28,23; -10,38</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 8,26</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 11,57</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-14,39; -0,65</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 11,95</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-20,16; -7,29</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>-5,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>-11,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>-19,75%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-26,64%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-12,91%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-19,61%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 23,66</t>
+          <t>-13,56; 21,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 32,03</t>
+          <t>-2,88; 32,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,65; 43,35</t>
+          <t>-20,7; 13,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 23,29</t>
+          <t>-6,06; 36,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 22,74</t>
+          <t>-25,59; 3,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,4; 34,91</t>
+          <t>-9,29; 21,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 16,85</t>
+          <t>-8,61; 21,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 22,13</t>
+          <t>-33,88; -3,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>7,76; 34,47</t>
+          <t>-11,68; 30,89</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-36,9; -15,04</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 15,16</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 21,3</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-23,46; -1,11</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 25,42</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-27,76; -10,41</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11,03</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-11,0</t>
+          <t>12,57</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-8,75</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>-20,47</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>14,65</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-2,99</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-4,99</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>5,19</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-14,86</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>13,75</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-4,61</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 11,15</t>
+          <t>-11,29; 10,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 16,26</t>
+          <t>-2,16; 19,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,1; 22,48</t>
+          <t>-18,38; 5,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,19; -1,19</t>
+          <t>1,33; 24,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 12,73</t>
+          <t>-17,33; 4,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 6,98</t>
+          <t>-18,0; 0,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 0,73</t>
+          <t>-4,26; 11,69</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 11,73</t>
+          <t>-32,51; -10,31</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 10,8</t>
+          <t>1,75; 24,63</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-13,63; 8,18</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-11,66; 1,83</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 12,35</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-22,36; -6,54</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>4,86; 21,69</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-12,52; 4,0</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>-12,73%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-15,56%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>-9,61%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-4,63%</t>
+          <t>-12,49%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-9,98%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>-29,24%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>29,58%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-4,46%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-7,65%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-22,8%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>27,32%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-6,71%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 21,59</t>
+          <t>-17,54; 19,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 30,82</t>
+          <t>-3,31; 36,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,07; 42,46</t>
+          <t>-28,61; 10,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-26,68; -2,02</t>
+          <t>2,21; 56,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 19,77</t>
+          <t>-22,82; 7,25</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 10,55</t>
+          <t>-24,22; 0,2</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 0,76</t>
+          <t>-5,77; 17,83</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 19,51</t>
+          <t>-43,66; -14,52</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 17,18</t>
+          <t>3,62; 58,8</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-18,69; 13,7</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-17,11; 3,01</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 19,81</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-32,79; -10,43</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>9,24; 49,53</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-17,13; 6,23</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>-9,15</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-9,64</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>5,31</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-9,4</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,67</t>
+          <t>-5,18; 4,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 9,45</t>
+          <t>0,23; 9,7</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,13; 15,27</t>
+          <t>-4,92; 4,98</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,51</t>
+          <t>-2,74; 7,26</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,47; 9,24</t>
+          <t>-13,82; -4,05</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,05</t>
+          <t>-3,23; 4,37</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,99</t>
+          <t>2,04; 9,33</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,97</t>
+          <t>-9,33; -1,02</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,86; 12,3</t>
+          <t>-1,36; 7,53</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-14,3; -5,11</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 3,44</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 8,22</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 0,63</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 5,76</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-12,45; -5,73</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>-15,86%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-14,87%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-5,34%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-15,34%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 8,36</t>
+          <t>-10,48; 9,17</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 21,08</t>
+          <t>0,49; 22,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>12,24; 34,26</t>
+          <t>-10,02; 11,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 8,18</t>
+          <t>-5,46; 16,36</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>2,43; 16,85</t>
+          <t>-23,45; -7,56</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>5,95; 21,84</t>
+          <t>-5,49; 7,91</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 5,94</t>
+          <t>3,45; 16,74</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>3,58; 15,63</t>
+          <t>-15,71; -1,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>10,82; 24,31</t>
+          <t>-2,54; 15,08</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-21,41; -8,24</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 6,84</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>4,72; 16,27</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; 1,28</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 12,03</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-20,04; -9,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
